--- a/StoresBudget_master.xlsx
+++ b/StoresBudget_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRYAN\Desktop\Hackaton 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BBE201-3085-4E1E-A5B6-D353ABB2142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AD62B6-7C22-4FA6-B53C-6F684AE9D811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -118,9 +118,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B702"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -517,7 +517,7 @@
       <c r="A2" s="2">
         <v>292</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>60749820000</v>
       </c>
     </row>
@@ -525,7 +525,7 @@
       <c r="A3" s="2">
         <v>294</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>21077200000</v>
       </c>
     </row>
@@ -533,7 +533,7 @@
       <c r="A4" s="2">
         <v>296</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>49737260000</v>
       </c>
     </row>
@@ -541,7 +541,7 @@
       <c r="A5" s="2">
         <v>298</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>28969630000</v>
       </c>
     </row>
@@ -549,7 +549,7 @@
       <c r="A6" s="2">
         <v>300</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>16368740000</v>
       </c>
     </row>
@@ -557,7 +557,7 @@
       <c r="A7" s="2">
         <v>302</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>45604680000</v>
       </c>
     </row>
@@ -565,7 +565,7 @@
       <c r="A8" s="2">
         <v>304</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>23782940000</v>
       </c>
     </row>
@@ -573,7 +573,7 @@
       <c r="A9" s="2">
         <v>306</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>31023140000</v>
       </c>
     </row>
@@ -581,7 +581,7 @@
       <c r="A10" s="2">
         <v>308</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>883780000</v>
       </c>
     </row>
@@ -589,7 +589,7 @@
       <c r="A11" s="2">
         <v>310</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>40563330000</v>
       </c>
     </row>
@@ -597,7 +597,7 @@
       <c r="A12" s="2">
         <v>312</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>46378260000</v>
       </c>
     </row>
@@ -605,7 +605,7 @@
       <c r="A13" s="2">
         <v>314</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>48977780000</v>
       </c>
     </row>
@@ -613,7 +613,7 @@
       <c r="A14" s="2">
         <v>316</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>31967100000</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
       <c r="A15" s="2">
         <v>318</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>15006480000</v>
       </c>
     </row>
@@ -629,7 +629,7 @@
       <c r="A16" s="2">
         <v>320</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>32121770000</v>
       </c>
     </row>
@@ -637,7 +637,7 @@
       <c r="A17" s="2">
         <v>322</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>33189850000</v>
       </c>
     </row>
@@ -645,7 +645,7 @@
       <c r="A18" s="2">
         <v>324</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>23240570000</v>
       </c>
     </row>
@@ -653,7 +653,7 @@
       <c r="A19" s="2">
         <v>326</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>20434100000</v>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="A20" s="2">
         <v>328</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>22255050000</v>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="A21" s="2">
         <v>330</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>13027960000</v>
       </c>
     </row>
@@ -677,7 +677,7 @@
       <c r="A22" s="2">
         <v>332</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>30108240000</v>
       </c>
     </row>
@@ -685,7 +685,7 @@
       <c r="A23" s="2">
         <v>334</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>38169540000</v>
       </c>
     </row>
@@ -693,7 +693,7 @@
       <c r="A24" s="2">
         <v>336</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>14845180000</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
       <c r="A25" s="2">
         <v>338</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>7976010000</v>
       </c>
     </row>
@@ -709,7 +709,7 @@
       <c r="A26" s="2">
         <v>340</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>3058200000</v>
       </c>
     </row>
@@ -717,7 +717,7 @@
       <c r="A27" s="2">
         <v>342</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>40901180000</v>
       </c>
     </row>
@@ -725,7 +725,7 @@
       <c r="A28" s="2">
         <v>344</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>16355410000</v>
       </c>
     </row>
@@ -733,7 +733,7 @@
       <c r="A29" s="2">
         <v>346</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>1721600000</v>
       </c>
     </row>
@@ -741,7 +741,7 @@
       <c r="A30" s="2">
         <v>348</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>44554770000</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
       <c r="A31" s="2">
         <v>350</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>38322330000</v>
       </c>
     </row>
@@ -757,7 +757,7 @@
       <c r="A32" s="2">
         <v>352</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>33067070000</v>
       </c>
     </row>
@@ -765,7 +765,7 @@
       <c r="A33" s="2">
         <v>354</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>28630480000</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
       <c r="A34" s="2">
         <v>356</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>36008860000</v>
       </c>
     </row>
@@ -781,7 +781,7 @@
       <c r="A35" s="2">
         <v>358</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>28147200000</v>
       </c>
     </row>
@@ -789,7 +789,7 @@
       <c r="A36" s="2">
         <v>360</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>42700460000</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
       <c r="A37" s="2">
         <v>362</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>22519690000</v>
       </c>
     </row>
@@ -805,7 +805,7 @@
       <c r="A38" s="2">
         <v>364</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>31439080000</v>
       </c>
     </row>
@@ -813,7 +813,7 @@
       <c r="A39" s="2">
         <v>366</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>16597240000</v>
       </c>
     </row>
@@ -821,7 +821,7 @@
       <c r="A40" s="2">
         <v>368</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>22211430000</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
       <c r="A41" s="2">
         <v>370</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>42174660000</v>
       </c>
     </row>
@@ -837,7 +837,7 @@
       <c r="A42" s="2">
         <v>372</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>40836930000</v>
       </c>
     </row>
@@ -845,7 +845,7 @@
       <c r="A43" s="2">
         <v>374</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>7720350000</v>
       </c>
     </row>
@@ -853,7 +853,7 @@
       <c r="A44" s="2">
         <v>376</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>30108720000</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
       <c r="A45" s="2">
         <v>378</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>17138880000</v>
       </c>
     </row>
@@ -869,7 +869,7 @@
       <c r="A46" s="2">
         <v>380</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>16268720000</v>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="A47" s="2">
         <v>382</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>20491160000</v>
       </c>
     </row>
@@ -885,7 +885,7 @@
       <c r="A48" s="2">
         <v>384</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>25257270000</v>
       </c>
     </row>
@@ -893,7 +893,7 @@
       <c r="A49" s="2">
         <v>386</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>30184330000</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
       <c r="A50" s="2">
         <v>388</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>27475130000</v>
       </c>
     </row>
@@ -909,7 +909,7 @@
       <c r="A51" s="2">
         <v>390</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>28923230000</v>
       </c>
     </row>
@@ -917,7 +917,7 @@
       <c r="A52" s="2">
         <v>392</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>41066890000</v>
       </c>
     </row>
@@ -925,7 +925,7 @@
       <c r="A53" s="2">
         <v>394</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>2427660000</v>
       </c>
     </row>
@@ -933,7 +933,7 @@
       <c r="A54" s="2">
         <v>396</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>29423640000</v>
       </c>
     </row>
@@ -941,7 +941,7 @@
       <c r="A55" s="2">
         <v>398</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>31021580000</v>
       </c>
     </row>
@@ -949,7 +949,7 @@
       <c r="A56" s="2">
         <v>400</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>25100850000</v>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="A57" s="2">
         <v>402</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>41542280000</v>
       </c>
     </row>
@@ -965,7 +965,7 @@
       <c r="A58" s="2">
         <v>404</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>6419490000</v>
       </c>
     </row>
@@ -973,7 +973,7 @@
       <c r="A59" s="2">
         <v>406</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>6945470000</v>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="A60" s="2">
         <v>408</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>21642320000</v>
       </c>
     </row>
@@ -989,7 +989,7 @@
       <c r="A61" s="2">
         <v>410</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>37251870000</v>
       </c>
     </row>
@@ -997,7 +997,7 @@
       <c r="A62" s="2">
         <v>412</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>15297340000</v>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="A63" s="2">
         <v>414</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>43230650000</v>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       <c r="A64" s="2">
         <v>416</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>46351170000</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       <c r="A65" s="2">
         <v>418</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>4663090000</v>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       <c r="A66" s="2">
         <v>420</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>11271260000</v>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       <c r="A67" s="2">
         <v>422</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>13234460000</v>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       <c r="A68" s="2">
         <v>424</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>21240080000</v>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       <c r="A69" s="2">
         <v>426</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>35085150000</v>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       <c r="A70" s="2">
         <v>428</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>20111200000</v>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       <c r="A71" s="2">
         <v>430</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>1816250000</v>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       <c r="A72" s="2">
         <v>432</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <v>10970030000</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       <c r="A73" s="2">
         <v>434</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>41798110000</v>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       <c r="A74" s="2">
         <v>436</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>39438110000</v>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       <c r="A75" s="2">
         <v>438</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>28112680000</v>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       <c r="A76" s="2">
         <v>440</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>30807610000</v>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       <c r="A77" s="2">
         <v>442</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>4292470000</v>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       <c r="A78" s="2">
         <v>444</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>13729140000</v>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       <c r="A79" s="2">
         <v>446</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <v>6837820000</v>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       <c r="A80" s="2">
         <v>448</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>36874100000</v>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       <c r="A81" s="2">
         <v>450</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <v>30667120000</v>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       <c r="A82" s="2">
         <v>452</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>23814220000</v>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       <c r="A83" s="2">
         <v>454</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>10962610000</v>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       <c r="A84" s="2">
         <v>456</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>40894230000</v>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       <c r="A85" s="2">
         <v>458</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <v>21996390000</v>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       <c r="A86" s="2">
         <v>460</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>36999830000</v>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       <c r="A87" s="2">
         <v>462</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>30399250000</v>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="A88" s="2">
         <v>464</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>7366740000</v>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       <c r="A89" s="2">
         <v>466</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>48984800000</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       <c r="A90" s="2">
         <v>468</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>11204260000</v>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       <c r="A91" s="2">
         <v>470</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>11800660000</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       <c r="A92" s="2">
         <v>472</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>15429240000</v>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="A93" s="2">
         <v>474</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>27918700000</v>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       <c r="A94" s="2">
         <v>476</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>40608430000</v>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       <c r="A95" s="2">
         <v>478</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>42430140000</v>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       <c r="A96" s="2">
         <v>480</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>41742870000</v>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       <c r="A97" s="2">
         <v>482</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <v>21421960000</v>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       <c r="A98" s="2">
         <v>484</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>41511740000</v>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="A99" s="2">
         <v>486</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>44520290000</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       <c r="A100" s="2">
         <v>488</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>11092790000</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       <c r="A101" s="2">
         <v>490</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <v>44207230000</v>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       <c r="A102" s="2">
         <v>492</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <v>20066530000</v>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       <c r="A103" s="2">
         <v>494</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <v>42245860000</v>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       <c r="A104" s="2">
         <v>496</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <v>35628290000</v>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       <c r="A105" s="2">
         <v>498</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <v>42978620000</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       <c r="A106" s="2">
         <v>500</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>4292320000</v>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       <c r="A107" s="2">
         <v>502</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <v>47143940000</v>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       <c r="A108" s="2">
         <v>504</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <v>23057930000</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       <c r="A109" s="2">
         <v>506</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <v>17824780000</v>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       <c r="A110" s="2">
         <v>508</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <v>28441430000</v>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       <c r="A111" s="2">
         <v>510</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <v>48466890000</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       <c r="A112" s="2">
         <v>512</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <v>36083240000</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       <c r="A113" s="2">
         <v>514</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <v>18389990000</v>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       <c r="A114" s="2">
         <v>516</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <v>15899270000</v>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       <c r="A115" s="2">
         <v>518</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <v>47933220000</v>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       <c r="A116" s="2">
         <v>520</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <v>25126680000</v>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       <c r="A117" s="2">
         <v>522</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <v>37330040000</v>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       <c r="A118" s="2">
         <v>524</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <v>29017670000</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       <c r="A119" s="2">
         <v>526</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <v>14072770000</v>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       <c r="A120" s="2">
         <v>528</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <v>39766940000</v>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       <c r="A121" s="2">
         <v>530</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <v>33767080000</v>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       <c r="A122" s="2">
         <v>532</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <v>27079580000</v>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       <c r="A123" s="2">
         <v>534</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <v>38064000000</v>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       <c r="A124" s="2">
         <v>536</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <v>27899230000</v>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       <c r="A125" s="2">
         <v>538</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <v>5735540000</v>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       <c r="A126" s="2">
         <v>540</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <v>20245530000</v>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="A127" s="2">
         <v>542</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="4">
         <v>15417820000</v>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       <c r="A128" s="2">
         <v>544</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <v>7603200000</v>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       <c r="A129" s="2">
         <v>546</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <v>15644200000</v>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       <c r="A130" s="2">
         <v>548</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <v>22376740000</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       <c r="A131" s="2">
         <v>550</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <v>8672650000</v>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       <c r="A132" s="2">
         <v>552</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <v>31086920000</v>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       <c r="A133" s="2">
         <v>554</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <v>29689880000</v>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       <c r="A134" s="2">
         <v>556</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <v>7565040000</v>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="A135" s="2">
         <v>558</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <v>38837540000</v>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       <c r="A136" s="2">
         <v>560</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <v>4234140000</v>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       <c r="A137" s="2">
         <v>562</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <v>10174010000</v>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       <c r="A138" s="2">
         <v>564</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>17065790000</v>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       <c r="A139" s="2">
         <v>566</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <v>2692000000</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       <c r="A140" s="2">
         <v>568</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <v>34721480000</v>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       <c r="A141" s="2">
         <v>570</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <v>35147410000</v>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       <c r="A142" s="2">
         <v>572</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>24424990000</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       <c r="A143" s="2">
         <v>574</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <v>29550760000</v>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       <c r="A144" s="2">
         <v>576</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>12740100000</v>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       <c r="A145" s="2">
         <v>578</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <v>17928390000</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="A146" s="2">
         <v>580</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>36628720000</v>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       <c r="A147" s="2">
         <v>582</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <v>41491130000</v>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       <c r="A148" s="2">
         <v>584</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <v>7473460000</v>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       <c r="A149" s="2">
         <v>586</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <v>1557820000</v>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       <c r="A150" s="2">
         <v>588</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <v>3178310000</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       <c r="A151" s="2">
         <v>590</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <v>25631390000</v>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       <c r="A152" s="2">
         <v>592</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>38778940000</v>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       <c r="A153" s="2">
         <v>594</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <v>20038410000</v>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       <c r="A154" s="2">
         <v>596</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <v>22071530000</v>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       <c r="A155" s="2">
         <v>598</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <v>42115410000</v>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       <c r="A156" s="2">
         <v>600</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="4">
         <v>39963680000</v>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       <c r="A157" s="2">
         <v>602</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <v>10727020000</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       <c r="A158" s="2">
         <v>604</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <v>49069160000</v>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       <c r="A159" s="2">
         <v>606</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="4">
         <v>36222020000</v>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       <c r="A160" s="2">
         <v>608</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>44948430000</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="A161" s="2">
         <v>610</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="4">
         <v>41916590000</v>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       <c r="A162" s="2">
         <v>612</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="4">
         <v>1179810000</v>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       <c r="A163" s="2">
         <v>614</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="4">
         <v>11754230000</v>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       <c r="A164" s="2">
         <v>616</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="4">
         <v>9068770000</v>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="A165" s="2">
         <v>618</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="4">
         <v>31165660000</v>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       <c r="A166" s="2">
         <v>620</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="4">
         <v>7286020000</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       <c r="A167" s="2">
         <v>622</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="4">
         <v>37000100000</v>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       <c r="A168" s="2">
         <v>624</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="4">
         <v>26182030000</v>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       <c r="A169" s="2">
         <v>626</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="4">
         <v>31333190000</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="A170" s="2">
         <v>628</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="4">
         <v>35521690000</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       <c r="A171" s="2">
         <v>630</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="4">
         <v>20122430000</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="A172" s="2">
         <v>632</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="4">
         <v>47805880000</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       <c r="A173" s="2">
         <v>634</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="4">
         <v>47800460000</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="A174" s="2">
         <v>636</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="4">
         <v>1012170000</v>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       <c r="A175" s="2">
         <v>638</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="4">
         <v>29473740000</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       <c r="A176" s="2">
         <v>640</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="4">
         <v>31158280000</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="A177" s="2">
         <v>642</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="4">
         <v>35952820000</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       <c r="A178" s="2">
         <v>644</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="4">
         <v>28216580000</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       <c r="A179" s="2">
         <v>646</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="4">
         <v>22914270000</v>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       <c r="A180" s="2">
         <v>648</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="4">
         <v>31900310000</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="A181" s="2">
         <v>650</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="4">
         <v>47323200000</v>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       <c r="A182" s="2">
         <v>652</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="4">
         <v>46000760000</v>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       <c r="A183" s="2">
         <v>654</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="4">
         <v>32260620000</v>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       <c r="A184" s="2">
         <v>656</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="4">
         <v>26190400000</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="A185" s="2">
         <v>658</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="4">
         <v>38385940000</v>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       <c r="A186" s="2">
         <v>660</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="4">
         <v>47051020000</v>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       <c r="A187" s="2">
         <v>662</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="4">
         <v>18003440000</v>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       <c r="A188" s="2">
         <v>664</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="4">
         <v>30745640000</v>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       <c r="A189" s="2">
         <v>666</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="4">
         <v>9824870000</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       <c r="A190" s="2">
         <v>668</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="4">
         <v>22954720000</v>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       <c r="A191" s="2">
         <v>670</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="4">
         <v>10021170000</v>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       <c r="A192" s="2">
         <v>672</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="4">
         <v>1124360000</v>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       <c r="A193" s="2">
         <v>674</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="4">
         <v>4121390000</v>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       <c r="A194" s="2">
         <v>676</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="4">
         <v>39239930000</v>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="A195" s="2">
         <v>678</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="4">
         <v>31486750000</v>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       <c r="A196" s="2">
         <v>680</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="4">
         <v>20727760000</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       <c r="A197" s="2">
         <v>682</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="4">
         <v>36453310000</v>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       <c r="A198" s="2">
         <v>684</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="4">
         <v>33968680000</v>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       <c r="A199" s="2">
         <v>686</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="4">
         <v>39263770000</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       <c r="A200" s="2">
         <v>688</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="4">
         <v>24494330000</v>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="A201" s="2">
         <v>690</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="4">
         <v>8393410000</v>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       <c r="A202" s="2">
         <v>692</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="4">
         <v>34232580000</v>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       <c r="A203" s="2">
         <v>694</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="4">
         <v>14862540000</v>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       <c r="A204" s="2">
         <v>696</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="4">
         <v>25010170000</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="A205" s="2">
         <v>698</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="4">
         <v>35383590000</v>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       <c r="A206" s="2">
         <v>700</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="4">
         <v>44457140000</v>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       <c r="A207" s="2">
         <v>702</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="4">
         <v>42492970000</v>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       <c r="A208" s="2">
         <v>704</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="4">
         <v>8652450000</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       <c r="A209" s="2">
         <v>706</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="4">
         <v>6313900000</v>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       <c r="A210" s="2">
         <v>708</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="4">
         <v>13858950000</v>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       <c r="A211" s="2">
         <v>710</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="4">
         <v>48456420000</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       <c r="A212" s="2">
         <v>712</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="4">
         <v>3611190000</v>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       <c r="A213" s="2">
         <v>714</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="4">
         <v>37261100000</v>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       <c r="A214" s="2">
         <v>716</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="4">
         <v>8447340000</v>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       <c r="A215" s="2">
         <v>718</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="4">
         <v>30929530000</v>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       <c r="A216" s="2">
         <v>720</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="4">
         <v>26415780000</v>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="A217" s="2">
         <v>722</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="4">
         <v>35956110000</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       <c r="A218" s="2">
         <v>724</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="4">
         <v>19816420000</v>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       <c r="A219" s="2">
         <v>726</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="4">
         <v>12965290000</v>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       <c r="A220" s="2">
         <v>728</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="4">
         <v>9185840000</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       <c r="A221" s="2">
         <v>730</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="4">
         <v>36018930000</v>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       <c r="A222" s="2">
         <v>732</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="4">
         <v>37103370000</v>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       <c r="A223" s="2">
         <v>734</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="4">
         <v>41018820000</v>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       <c r="A224" s="2">
         <v>736</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="4">
         <v>36383990000</v>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       <c r="A225" s="2">
         <v>738</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="4">
         <v>2120350000</v>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       <c r="A226" s="2">
         <v>740</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="4">
         <v>11513850000</v>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       <c r="A227" s="2">
         <v>742</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="4">
         <v>33650390000</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="A228" s="2">
         <v>744</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="4">
         <v>9385080000</v>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="A229" s="2">
         <v>746</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="4">
         <v>41171160000</v>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       <c r="A230" s="2">
         <v>748</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="4">
         <v>42914890000</v>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       <c r="A231" s="2">
         <v>750</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="4">
         <v>47155970000</v>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       <c r="A232" s="2">
         <v>752</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="4">
         <v>22015890000</v>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       <c r="A233" s="2">
         <v>754</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="4">
         <v>2849360000</v>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       <c r="A234" s="2">
         <v>756</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="4">
         <v>38906850000</v>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       <c r="A235" s="2">
         <v>758</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="4">
         <v>22931340000</v>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       <c r="A236" s="2">
         <v>760</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="4">
         <v>11561120000</v>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       <c r="A237" s="2">
         <v>762</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="4">
         <v>48183270000</v>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       <c r="A238" s="2">
         <v>764</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="4">
         <v>45860450000</v>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       <c r="A239" s="2">
         <v>766</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="4">
         <v>44825330000</v>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       <c r="A240" s="2">
         <v>768</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="4">
         <v>34463470000</v>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="A241" s="2">
         <v>770</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="4">
         <v>44667240000</v>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       <c r="A242" s="2">
         <v>772</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="4">
         <v>29818510000</v>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       <c r="A243" s="2">
         <v>774</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="4">
         <v>9579270000</v>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       <c r="A244" s="2">
         <v>776</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="4">
         <v>21590720000</v>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       <c r="A245" s="2">
         <v>778</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="4">
         <v>3994980000</v>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       <c r="A246" s="2">
         <v>780</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="4">
         <v>30667150000</v>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       <c r="A247" s="2">
         <v>782</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247" s="4">
         <v>27522570000</v>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       <c r="A248" s="2">
         <v>784</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="4">
         <v>41571580000</v>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       <c r="A249" s="2">
         <v>786</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="4">
         <v>16484700000</v>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       <c r="A250" s="2">
         <v>788</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="4">
         <v>47190410000</v>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       <c r="A251" s="2">
         <v>790</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="4">
         <v>35318450000</v>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       <c r="A252" s="2">
         <v>792</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="4">
         <v>34764670000</v>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       <c r="A253" s="2">
         <v>794</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="4">
         <v>30829760000</v>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       <c r="A254" s="2">
         <v>796</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="4">
         <v>34434710000</v>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       <c r="A255" s="2">
         <v>798</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="4">
         <v>4061960000</v>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       <c r="A256" s="2">
         <v>800</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="4">
         <v>11377070000</v>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       <c r="A257" s="2">
         <v>802</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="4">
         <v>16848250000</v>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       <c r="A258" s="2">
         <v>804</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="4">
         <v>18780140000</v>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       <c r="A259" s="2">
         <v>806</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="4">
         <v>16774520000</v>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       <c r="A260" s="2">
         <v>808</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="4">
         <v>12232720000</v>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       <c r="A261" s="2">
         <v>810</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="4">
         <v>15443680000</v>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       <c r="A262" s="2">
         <v>812</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="4">
         <v>29443610000</v>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="A263" s="2">
         <v>814</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="4">
         <v>46178100000</v>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       <c r="A264" s="2">
         <v>816</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="4">
         <v>45374450000</v>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       <c r="A265" s="2">
         <v>818</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="4">
         <v>37036160000</v>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       <c r="A266" s="2">
         <v>820</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="4">
         <v>13289740000</v>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       <c r="A267" s="2">
         <v>822</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="4">
         <v>10129310000</v>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       <c r="A268" s="2">
         <v>824</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="4">
         <v>45948100000</v>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
       <c r="A269" s="2">
         <v>826</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="4">
         <v>36536110000</v>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       <c r="A270" s="2">
         <v>828</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="4">
         <v>34610420000</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="A271" s="2">
         <v>830</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="4">
         <v>49702140000</v>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       <c r="A272" s="2">
         <v>832</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="4">
         <v>9430130000</v>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       <c r="A273" s="2">
         <v>834</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="4">
         <v>8978470000</v>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       <c r="A274" s="2">
         <v>836</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="4">
         <v>27231830000</v>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       <c r="A275" s="2">
         <v>838</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="4">
         <v>45605320000</v>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       <c r="A276" s="2">
         <v>840</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="4">
         <v>36209310000</v>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       <c r="A277" s="2">
         <v>842</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="4">
         <v>4352490000</v>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
       <c r="A278" s="2">
         <v>844</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="4">
         <v>26617990000</v>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       <c r="A279" s="2">
         <v>846</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="4">
         <v>42963210000</v>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       <c r="A280" s="2">
         <v>848</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="4">
         <v>6586570000</v>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       <c r="A281" s="2">
         <v>850</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="4">
         <v>24829170000</v>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       <c r="A282" s="2">
         <v>852</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="4">
         <v>36580070000</v>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       <c r="A283" s="2">
         <v>854</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="4">
         <v>3612170000</v>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       <c r="A284" s="2">
         <v>856</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="4">
         <v>12108060000</v>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       <c r="A285" s="2">
         <v>858</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="4">
         <v>25020370000</v>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       <c r="A286" s="2">
         <v>860</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="4">
         <v>28829690000</v>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       <c r="A287" s="2">
         <v>862</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287" s="4">
         <v>49792850000</v>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       <c r="A288" s="2">
         <v>864</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="4">
         <v>30420530000</v>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       <c r="A289" s="2">
         <v>866</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="4">
         <v>32305880000</v>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       <c r="A290" s="2">
         <v>868</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B290" s="4">
         <v>43638310000</v>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       <c r="A291" s="2">
         <v>870</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291" s="4">
         <v>26640060000</v>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       <c r="A292" s="2">
         <v>872</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="4">
         <v>11986390000</v>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       <c r="A293" s="2">
         <v>874</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293" s="4">
         <v>41215870000</v>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       <c r="A294" s="2">
         <v>876</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="4">
         <v>28146660000</v>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       <c r="A295" s="2">
         <v>878</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295" s="4">
         <v>14029740000</v>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       <c r="A296" s="2">
         <v>880</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="4">
         <v>32987720000</v>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       <c r="A297" s="2">
         <v>882</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="4">
         <v>31107260000</v>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       <c r="A298" s="2">
         <v>884</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="4">
         <v>46109720000</v>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       <c r="A299" s="2">
         <v>886</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299" s="4">
         <v>5377350000</v>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       <c r="A300" s="2">
         <v>888</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="4">
         <v>28041210000</v>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       <c r="A301" s="2">
         <v>890</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="4">
         <v>44685460000</v>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       <c r="A302" s="2">
         <v>892</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="4">
         <v>19787230000</v>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       <c r="A303" s="2">
         <v>894</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303" s="4">
         <v>36142430000</v>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       <c r="A304" s="2">
         <v>896</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="4">
         <v>23093190000</v>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       <c r="A305" s="2">
         <v>898</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="4">
         <v>47878230000</v>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       <c r="A306" s="2">
         <v>900</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="4">
         <v>22659020000</v>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       <c r="A307" s="2">
         <v>902</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307" s="4">
         <v>1429460000</v>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       <c r="A308" s="2">
         <v>904</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="4">
         <v>7059290000</v>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       <c r="A309" s="2">
         <v>906</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="4">
         <v>35420850000</v>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       <c r="A310" s="2">
         <v>908</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="4">
         <v>30694350000</v>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="A311" s="2">
         <v>910</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311" s="4">
         <v>43129920000</v>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       <c r="A312" s="2">
         <v>912</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="4">
         <v>40983780000</v>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       <c r="A313" s="2">
         <v>914</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="4">
         <v>48791960000</v>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       <c r="A314" s="2">
         <v>916</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="4">
         <v>34978550000</v>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       <c r="A315" s="2">
         <v>918</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315" s="4">
         <v>18312150000</v>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       <c r="A316" s="2">
         <v>920</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="4">
         <v>30467110000</v>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       <c r="A317" s="2">
         <v>922</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="4">
         <v>20905160000</v>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       <c r="A318" s="2">
         <v>924</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="4">
         <v>38403190000</v>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       <c r="A319" s="2">
         <v>926</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319" s="4">
         <v>19517340000</v>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       <c r="A320" s="2">
         <v>928</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="4">
         <v>15815510000</v>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       <c r="A321" s="2">
         <v>930</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321" s="4">
         <v>31844240000</v>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       <c r="A322" s="2">
         <v>932</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="4">
         <v>20316930000</v>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       <c r="A323" s="2">
         <v>934</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323" s="4">
         <v>6720170000</v>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       <c r="A324" s="2">
         <v>936</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="4">
         <v>17971750000</v>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       <c r="A325" s="2">
         <v>938</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="4">
         <v>47817170000</v>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       <c r="A326" s="2">
         <v>940</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="4">
         <v>7588010000</v>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       <c r="A327" s="2">
         <v>942</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327" s="4">
         <v>6968390000</v>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       <c r="A328" s="2">
         <v>944</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="4">
         <v>46616750000</v>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       <c r="A329" s="2">
         <v>946</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="4">
         <v>49987990000</v>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       <c r="A330" s="2">
         <v>948</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="4">
         <v>27977150000</v>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       <c r="A331" s="2">
         <v>950</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331" s="4">
         <v>23985350000</v>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="A332" s="2">
         <v>952</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332" s="4">
         <v>49249660000</v>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       <c r="A333" s="2">
         <v>954</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333" s="4">
         <v>19033370000</v>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       <c r="A334" s="2">
         <v>956</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334" s="4">
         <v>29040220000</v>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       <c r="A335" s="2">
         <v>958</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335" s="4">
         <v>46705890000</v>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       <c r="A336" s="2">
         <v>960</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336" s="4">
         <v>3100650000</v>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       <c r="A337" s="2">
         <v>962</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337" s="4">
         <v>2041750000</v>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       <c r="A338" s="2">
         <v>964</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338" s="4">
         <v>42521450000</v>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       <c r="A339" s="2">
         <v>966</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339" s="4">
         <v>10598390000</v>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       <c r="A340" s="2">
         <v>968</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340" s="4">
         <v>45609260000</v>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       <c r="A341" s="2">
         <v>970</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341" s="4">
         <v>5682080000</v>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       <c r="A342" s="2">
         <v>972</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342" s="4">
         <v>7799620000</v>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       <c r="A343" s="2">
         <v>974</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343" s="4">
         <v>40929700000</v>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       <c r="A344" s="2">
         <v>976</v>
       </c>
-      <c r="B344" s="3">
+      <c r="B344" s="4">
         <v>46968460000</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       <c r="A345" s="2">
         <v>978</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B345" s="4">
         <v>3503160000</v>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       <c r="A346" s="2">
         <v>980</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346" s="4">
         <v>3553820000</v>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="A347" s="2">
         <v>982</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347" s="4">
         <v>13116880000</v>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       <c r="A348" s="2">
         <v>984</v>
       </c>
-      <c r="B348" s="3">
+      <c r="B348" s="4">
         <v>11020330000</v>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       <c r="A349" s="2">
         <v>986</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349" s="4">
         <v>23503050000</v>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       <c r="A350" s="2">
         <v>988</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350" s="4">
         <v>27171810000</v>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       <c r="A351" s="2">
         <v>990</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351" s="4">
         <v>7046330000</v>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       <c r="A352" s="2">
         <v>992</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352" s="4">
         <v>4870170000</v>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       <c r="A353" s="2">
         <v>994</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353" s="4">
         <v>42328240000</v>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       <c r="A354" s="2">
         <v>996</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354" s="4">
         <v>47955760000</v>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       <c r="A355" s="2">
         <v>998</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355" s="4">
         <v>49188080000</v>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       <c r="A356" s="2">
         <v>1000</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356" s="4">
         <v>19248380000</v>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       <c r="A357" s="2">
         <v>1002</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357" s="4">
         <v>12455950000</v>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       <c r="A358" s="2">
         <v>1004</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358" s="4">
         <v>46268580000</v>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       <c r="A359" s="2">
         <v>1006</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359" s="4">
         <v>36539370000</v>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       <c r="A360" s="2">
         <v>1008</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360" s="4">
         <v>43482880000</v>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       <c r="A361" s="2">
         <v>1010</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361" s="4">
         <v>617040000</v>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       <c r="A362" s="2">
         <v>1012</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362" s="4">
         <v>14445440000</v>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       <c r="A363" s="2">
         <v>1014</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363" s="4">
         <v>13804730000</v>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       <c r="A364" s="2">
         <v>1016</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364" s="4">
         <v>25392730000</v>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       <c r="A365" s="2">
         <v>1018</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365" s="4">
         <v>16581060000</v>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       <c r="A366" s="2">
         <v>1020</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366" s="4">
         <v>48791340000</v>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       <c r="A367" s="2">
         <v>1022</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367" s="4">
         <v>45677640000</v>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       <c r="A368" s="2">
         <v>1024</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368" s="4">
         <v>12921320000</v>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       <c r="A369" s="2">
         <v>1026</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369" s="4">
         <v>24773700000</v>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       <c r="A370" s="2">
         <v>1028</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370" s="4">
         <v>10588900000</v>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       <c r="A371" s="2">
         <v>1030</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371" s="4">
         <v>3994490000</v>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       <c r="A372" s="2">
         <v>1032</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372" s="4">
         <v>30585040000</v>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       <c r="A373" s="2">
         <v>1034</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373" s="4">
         <v>48516470000</v>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       <c r="A374" s="2">
         <v>1036</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374" s="4">
         <v>5710080000</v>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       <c r="A375" s="2">
         <v>1038</v>
       </c>
-      <c r="B375" s="3">
+      <c r="B375" s="4">
         <v>20523490000</v>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       <c r="A376" s="2">
         <v>1040</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376" s="4">
         <v>39455550000</v>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       <c r="A377" s="2">
         <v>1042</v>
       </c>
-      <c r="B377" s="3">
+      <c r="B377" s="4">
         <v>9186570000</v>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       <c r="A378" s="2">
         <v>1044</v>
       </c>
-      <c r="B378" s="3">
+      <c r="B378" s="4">
         <v>40528240000</v>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       <c r="A379" s="2">
         <v>1046</v>
       </c>
-      <c r="B379" s="3">
+      <c r="B379" s="4">
         <v>16992130000</v>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       <c r="A380" s="2">
         <v>1048</v>
       </c>
-      <c r="B380" s="3">
+      <c r="B380" s="4">
         <v>15600160000</v>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       <c r="A381" s="2">
         <v>1050</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381" s="4">
         <v>47539430000</v>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="A382" s="2">
         <v>1052</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382" s="4">
         <v>39564360000</v>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       <c r="A383" s="2">
         <v>1054</v>
       </c>
-      <c r="B383" s="3">
+      <c r="B383" s="4">
         <v>44312010000</v>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       <c r="A384" s="2">
         <v>1056</v>
       </c>
-      <c r="B384" s="3">
+      <c r="B384" s="4">
         <v>40510330000</v>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       <c r="A385" s="2">
         <v>1058</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B385" s="4">
         <v>39205120000</v>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       <c r="A386" s="2">
         <v>1060</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B386" s="4">
         <v>49271660000</v>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       <c r="A387" s="2">
         <v>1062</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B387" s="4">
         <v>46529010000</v>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
       <c r="A388" s="2">
         <v>1064</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B388" s="4">
         <v>38102470000</v>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       <c r="A389" s="2">
         <v>1066</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B389" s="4">
         <v>27383410000</v>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       <c r="A390" s="2">
         <v>1068</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B390" s="4">
         <v>22538440000</v>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       <c r="A391" s="2">
         <v>1070</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391" s="4">
         <v>22666130000</v>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       <c r="A392" s="2">
         <v>1072</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392" s="4">
         <v>15826160000</v>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       <c r="A393" s="2">
         <v>1074</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393" s="4">
         <v>38734270000</v>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       <c r="A394" s="2">
         <v>1076</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394" s="4">
         <v>5787480000</v>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       <c r="A395" s="2">
         <v>1078</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B395" s="4">
         <v>6739980000</v>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       <c r="A396" s="2">
         <v>1080</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B396" s="4">
         <v>15847170000</v>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       <c r="A397" s="2">
         <v>1082</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B397" s="4">
         <v>41689120000</v>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       <c r="A398" s="2">
         <v>1084</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398" s="4">
         <v>9881100000</v>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       <c r="A399" s="2">
         <v>1086</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399" s="4">
         <v>4615250000</v>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       <c r="A400" s="2">
         <v>1088</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400" s="4">
         <v>24705320000</v>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       <c r="A401" s="2">
         <v>1090</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401" s="4">
         <v>27652240000</v>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       <c r="A402" s="2">
         <v>1092</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402" s="4">
         <v>1517170000</v>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       <c r="A403" s="2">
         <v>1094</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403" s="4">
         <v>3682540000</v>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       <c r="A404" s="2">
         <v>1096</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B404" s="4">
         <v>33293050000</v>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       <c r="A405" s="2">
         <v>1098</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405" s="4">
         <v>41871560000</v>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       <c r="A406" s="2">
         <v>1100</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406" s="4">
         <v>2410490000</v>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       <c r="A407" s="2">
         <v>1102</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B407" s="4">
         <v>29709080000</v>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       <c r="A408" s="2">
         <v>1104</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B408" s="4">
         <v>17459620000</v>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       <c r="A409" s="2">
         <v>1106</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B409" s="4">
         <v>22467550000</v>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       <c r="A410" s="2">
         <v>1108</v>
       </c>
-      <c r="B410" s="3">
+      <c r="B410" s="4">
         <v>16841540000</v>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       <c r="A411" s="2">
         <v>1110</v>
       </c>
-      <c r="B411" s="3">
+      <c r="B411" s="4">
         <v>34057110000</v>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       <c r="A412" s="2">
         <v>1112</v>
       </c>
-      <c r="B412" s="3">
+      <c r="B412" s="4">
         <v>6788400000</v>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       <c r="A413" s="2">
         <v>1114</v>
       </c>
-      <c r="B413" s="3">
+      <c r="B413" s="4">
         <v>37478830000</v>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       <c r="A414" s="2">
         <v>1116</v>
       </c>
-      <c r="B414" s="3">
+      <c r="B414" s="4">
         <v>10400100000</v>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       <c r="A415" s="2">
         <v>1118</v>
       </c>
-      <c r="B415" s="3">
+      <c r="B415" s="4">
         <v>49890070000</v>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       <c r="A416" s="2">
         <v>1120</v>
       </c>
-      <c r="B416" s="3">
+      <c r="B416" s="4">
         <v>31785880000</v>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       <c r="A417" s="2">
         <v>1122</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B417" s="4">
         <v>10856060000</v>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       <c r="A418" s="2">
         <v>1124</v>
       </c>
-      <c r="B418" s="3">
+      <c r="B418" s="4">
         <v>46748860000</v>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       <c r="A419" s="2">
         <v>1126</v>
       </c>
-      <c r="B419" s="3">
+      <c r="B419" s="4">
         <v>34167200000</v>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       <c r="A420" s="2">
         <v>1128</v>
       </c>
-      <c r="B420" s="3">
+      <c r="B420" s="4">
         <v>40341710000</v>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       <c r="A421" s="2">
         <v>1130</v>
       </c>
-      <c r="B421" s="3">
+      <c r="B421" s="4">
         <v>42630010000</v>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       <c r="A422" s="2">
         <v>1132</v>
       </c>
-      <c r="B422" s="3">
+      <c r="B422" s="4">
         <v>29628710000</v>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       <c r="A423" s="2">
         <v>1134</v>
       </c>
-      <c r="B423" s="3">
+      <c r="B423" s="4">
         <v>8505930000</v>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
       <c r="A424" s="2">
         <v>1136</v>
       </c>
-      <c r="B424" s="3">
+      <c r="B424" s="4">
         <v>41996840000</v>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       <c r="A425" s="2">
         <v>1138</v>
       </c>
-      <c r="B425" s="3">
+      <c r="B425" s="4">
         <v>18033900000</v>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       <c r="A426" s="2">
         <v>1140</v>
       </c>
-      <c r="B426" s="3">
+      <c r="B426" s="4">
         <v>33167380000</v>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       <c r="A427" s="2">
         <v>1142</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B427" s="4">
         <v>8758550000</v>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       <c r="A428" s="2">
         <v>1144</v>
       </c>
-      <c r="B428" s="3">
+      <c r="B428" s="4">
         <v>42855880000</v>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       <c r="A429" s="2">
         <v>1146</v>
       </c>
-      <c r="B429" s="3">
+      <c r="B429" s="4">
         <v>44728370000</v>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       <c r="A430" s="2">
         <v>1148</v>
       </c>
-      <c r="B430" s="3">
+      <c r="B430" s="4">
         <v>43545070000</v>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       <c r="A431" s="2">
         <v>1150</v>
       </c>
-      <c r="B431" s="3">
+      <c r="B431" s="4">
         <v>21676900000</v>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       <c r="A432" s="2">
         <v>1152</v>
       </c>
-      <c r="B432" s="3">
+      <c r="B432" s="4">
         <v>30972860000</v>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       <c r="A433" s="2">
         <v>1154</v>
       </c>
-      <c r="B433" s="3">
+      <c r="B433" s="4">
         <v>46858800000</v>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       <c r="A434" s="2">
         <v>1156</v>
       </c>
-      <c r="B434" s="3">
+      <c r="B434" s="4">
         <v>38282510000</v>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="A435" s="2">
         <v>1158</v>
       </c>
-      <c r="B435" s="3">
+      <c r="B435" s="4">
         <v>34968120000</v>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       <c r="A436" s="2">
         <v>1160</v>
       </c>
-      <c r="B436" s="3">
+      <c r="B436" s="4">
         <v>11569630000</v>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       <c r="A437" s="2">
         <v>1162</v>
       </c>
-      <c r="B437" s="3">
+      <c r="B437" s="4">
         <v>11704400000</v>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       <c r="A438" s="2">
         <v>1164</v>
       </c>
-      <c r="B438" s="3">
+      <c r="B438" s="4">
         <v>25663990000</v>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       <c r="A439" s="2">
         <v>1166</v>
       </c>
-      <c r="B439" s="3">
+      <c r="B439" s="4">
         <v>17234250000</v>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       <c r="A440" s="2">
         <v>1168</v>
       </c>
-      <c r="B440" s="3">
+      <c r="B440" s="4">
         <v>6920020000</v>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       <c r="A441" s="2">
         <v>1170</v>
       </c>
-      <c r="B441" s="3">
+      <c r="B441" s="4">
         <v>41793900000</v>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       <c r="A442" s="2">
         <v>1172</v>
       </c>
-      <c r="B442" s="3">
+      <c r="B442" s="4">
         <v>48554630000</v>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
       <c r="A443" s="2">
         <v>1174</v>
       </c>
-      <c r="B443" s="3">
+      <c r="B443" s="4">
         <v>15669640000</v>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       <c r="A444" s="2">
         <v>1176</v>
       </c>
-      <c r="B444" s="3">
+      <c r="B444" s="4">
         <v>1548770000</v>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       <c r="A445" s="2">
         <v>1178</v>
       </c>
-      <c r="B445" s="3">
+      <c r="B445" s="4">
         <v>35126530000</v>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       <c r="A446" s="2">
         <v>1180</v>
       </c>
-      <c r="B446" s="3">
+      <c r="B446" s="4">
         <v>41938390000</v>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       <c r="A447" s="2">
         <v>1182</v>
       </c>
-      <c r="B447" s="3">
+      <c r="B447" s="4">
         <v>19013180000</v>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
       <c r="A448" s="2">
         <v>1184</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B448" s="4">
         <v>13411720000</v>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       <c r="A449" s="2">
         <v>1186</v>
       </c>
-      <c r="B449" s="3">
+      <c r="B449" s="4">
         <v>3938830000</v>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       <c r="A450" s="2">
         <v>1188</v>
       </c>
-      <c r="B450" s="3">
+      <c r="B450" s="4">
         <v>33938520000</v>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       <c r="A451" s="2">
         <v>1190</v>
       </c>
-      <c r="B451" s="3">
+      <c r="B451" s="4">
         <v>41350900000</v>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       <c r="A452" s="2">
         <v>1192</v>
       </c>
-      <c r="B452" s="3">
+      <c r="B452" s="4">
         <v>18380310000</v>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       <c r="A453" s="2">
         <v>1194</v>
       </c>
-      <c r="B453" s="3">
+      <c r="B453" s="4">
         <v>14748010000</v>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       <c r="A454" s="2">
         <v>1196</v>
       </c>
-      <c r="B454" s="3">
+      <c r="B454" s="4">
         <v>41482120000</v>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       <c r="A455" s="2">
         <v>1198</v>
       </c>
-      <c r="B455" s="3">
+      <c r="B455" s="4">
         <v>38235380000</v>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       <c r="A456" s="2">
         <v>1200</v>
       </c>
-      <c r="B456" s="3">
+      <c r="B456" s="4">
         <v>48280340000</v>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       <c r="A457" s="2">
         <v>1202</v>
       </c>
-      <c r="B457" s="3">
+      <c r="B457" s="4">
         <v>25572370000</v>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       <c r="A458" s="2">
         <v>1204</v>
       </c>
-      <c r="B458" s="3">
+      <c r="B458" s="4">
         <v>5864710000</v>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       <c r="A459" s="2">
         <v>1206</v>
       </c>
-      <c r="B459" s="3">
+      <c r="B459" s="4">
         <v>26251600000</v>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       <c r="A460" s="2">
         <v>1208</v>
       </c>
-      <c r="B460" s="3">
+      <c r="B460" s="4">
         <v>13292010000</v>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       <c r="A461" s="2">
         <v>1210</v>
       </c>
-      <c r="B461" s="3">
+      <c r="B461" s="4">
         <v>9144010000</v>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       <c r="A462" s="2">
         <v>1212</v>
       </c>
-      <c r="B462" s="3">
+      <c r="B462" s="4">
         <v>18872610000</v>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
       <c r="A463" s="2">
         <v>1214</v>
       </c>
-      <c r="B463" s="3">
+      <c r="B463" s="4">
         <v>30049290000</v>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       <c r="A464" s="2">
         <v>1216</v>
       </c>
-      <c r="B464" s="3">
+      <c r="B464" s="4">
         <v>16039000000</v>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       <c r="A465" s="2">
         <v>1218</v>
       </c>
-      <c r="B465" s="3">
+      <c r="B465" s="4">
         <v>3913930000</v>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       <c r="A466" s="2">
         <v>1220</v>
       </c>
-      <c r="B466" s="3">
+      <c r="B466" s="4">
         <v>25321500000</v>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       <c r="A467" s="2">
         <v>1222</v>
       </c>
-      <c r="B467" s="3">
+      <c r="B467" s="4">
         <v>30919360000</v>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="A468" s="2">
         <v>1224</v>
       </c>
-      <c r="B468" s="3">
+      <c r="B468" s="4">
         <v>28773690000</v>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       <c r="A469" s="2">
         <v>1226</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B469" s="4">
         <v>25159090000</v>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       <c r="A470" s="2">
         <v>1228</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B470" s="4">
         <v>38911180000</v>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       <c r="A471" s="2">
         <v>1230</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B471" s="4">
         <v>8211510000</v>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       <c r="A472" s="2">
         <v>1232</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B472" s="4">
         <v>12857240000</v>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       <c r="A473" s="2">
         <v>1234</v>
       </c>
-      <c r="B473" s="3">
+      <c r="B473" s="4">
         <v>1325650000</v>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       <c r="A474" s="2">
         <v>1236</v>
       </c>
-      <c r="B474" s="3">
+      <c r="B474" s="4">
         <v>37508040000</v>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       <c r="A475" s="2">
         <v>1238</v>
       </c>
-      <c r="B475" s="3">
+      <c r="B475" s="4">
         <v>49167270000</v>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       <c r="A476" s="2">
         <v>1240</v>
       </c>
-      <c r="B476" s="3">
+      <c r="B476" s="4">
         <v>44505290000</v>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       <c r="A477" s="2">
         <v>1242</v>
       </c>
-      <c r="B477" s="3">
+      <c r="B477" s="4">
         <v>1759980000</v>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
       <c r="A478" s="2">
         <v>1244</v>
       </c>
-      <c r="B478" s="3">
+      <c r="B478" s="4">
         <v>6672380000</v>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
       <c r="A479" s="2">
         <v>1246</v>
       </c>
-      <c r="B479" s="3">
+      <c r="B479" s="4">
         <v>2057610000</v>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       <c r="A480" s="2">
         <v>1248</v>
       </c>
-      <c r="B480" s="3">
+      <c r="B480" s="4">
         <v>45390540000</v>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       <c r="A481" s="2">
         <v>1250</v>
       </c>
-      <c r="B481" s="3">
+      <c r="B481" s="4">
         <v>26968900000</v>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       <c r="A482" s="2">
         <v>1252</v>
       </c>
-      <c r="B482" s="3">
+      <c r="B482" s="4">
         <v>46690350000</v>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       <c r="A483" s="2">
         <v>1254</v>
       </c>
-      <c r="B483" s="3">
+      <c r="B483" s="4">
         <v>26880610000</v>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       <c r="A484" s="2">
         <v>1256</v>
       </c>
-      <c r="B484" s="3">
+      <c r="B484" s="4">
         <v>4694370000</v>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       <c r="A485" s="2">
         <v>1258</v>
       </c>
-      <c r="B485" s="3">
+      <c r="B485" s="4">
         <v>14770710000</v>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       <c r="A486" s="2">
         <v>1260</v>
       </c>
-      <c r="B486" s="3">
+      <c r="B486" s="4">
         <v>12371510000</v>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       <c r="A487" s="2">
         <v>1262</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B487" s="4">
         <v>48549130000</v>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
       <c r="A488" s="2">
         <v>1264</v>
       </c>
-      <c r="B488" s="3">
+      <c r="B488" s="4">
         <v>39155010000</v>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       <c r="A489" s="2">
         <v>1266</v>
       </c>
-      <c r="B489" s="3">
+      <c r="B489" s="4">
         <v>17121940000</v>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       <c r="A490" s="2">
         <v>1268</v>
       </c>
-      <c r="B490" s="3">
+      <c r="B490" s="4">
         <v>17644180000</v>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="A491" s="2">
         <v>1270</v>
       </c>
-      <c r="B491" s="3">
+      <c r="B491" s="4">
         <v>29595390000</v>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       <c r="A492" s="2">
         <v>1272</v>
       </c>
-      <c r="B492" s="3">
+      <c r="B492" s="4">
         <v>1137310000</v>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       <c r="A493" s="2">
         <v>1274</v>
       </c>
-      <c r="B493" s="3">
+      <c r="B493" s="4">
         <v>37274940000</v>
       </c>
     </row>
@@ -4453,7 +4453,7 @@
       <c r="A494" s="2">
         <v>1276</v>
       </c>
-      <c r="B494" s="3">
+      <c r="B494" s="4">
         <v>11775390000</v>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       <c r="A495" s="2">
         <v>1278</v>
       </c>
-      <c r="B495" s="3">
+      <c r="B495" s="4">
         <v>11241510000</v>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       <c r="A496" s="2">
         <v>1280</v>
       </c>
-      <c r="B496" s="3">
+      <c r="B496" s="4">
         <v>12257840000</v>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       <c r="A497" s="2">
         <v>1282</v>
       </c>
-      <c r="B497" s="3">
+      <c r="B497" s="4">
         <v>40213730000</v>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       <c r="A498" s="2">
         <v>1284</v>
       </c>
-      <c r="B498" s="3">
+      <c r="B498" s="4">
         <v>14562240000</v>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
       <c r="A499" s="2">
         <v>1286</v>
       </c>
-      <c r="B499" s="3">
+      <c r="B499" s="4">
         <v>22673030000</v>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       <c r="A500" s="2">
         <v>1288</v>
       </c>
-      <c r="B500" s="3">
+      <c r="B500" s="4">
         <v>6910220000</v>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       <c r="A501" s="2">
         <v>1290</v>
       </c>
-      <c r="B501" s="3">
+      <c r="B501" s="4">
         <v>46853770000</v>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       <c r="A502" s="2">
         <v>1292</v>
       </c>
-      <c r="B502" s="3">
+      <c r="B502" s="4">
         <v>34875340000</v>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="A503" s="2">
         <v>1294</v>
       </c>
-      <c r="B503" s="3">
+      <c r="B503" s="4">
         <v>31844270000</v>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       <c r="A504" s="2">
         <v>1296</v>
       </c>
-      <c r="B504" s="3">
+      <c r="B504" s="4">
         <v>45781080000</v>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       <c r="A505" s="2">
         <v>1298</v>
       </c>
-      <c r="B505" s="3">
+      <c r="B505" s="4">
         <v>31303930000</v>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       <c r="A506" s="2">
         <v>1300</v>
       </c>
-      <c r="B506" s="3">
+      <c r="B506" s="4">
         <v>15495180000</v>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       <c r="A507" s="2">
         <v>1302</v>
       </c>
-      <c r="B507" s="3">
+      <c r="B507" s="4">
         <v>43499200000</v>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
       <c r="A508" s="2">
         <v>1304</v>
       </c>
-      <c r="B508" s="3">
+      <c r="B508" s="4">
         <v>37725270000</v>
       </c>
     </row>
@@ -4573,7 +4573,7 @@
       <c r="A509" s="2">
         <v>1306</v>
       </c>
-      <c r="B509" s="3">
+      <c r="B509" s="4">
         <v>3740790000</v>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       <c r="A510" s="2">
         <v>1308</v>
       </c>
-      <c r="B510" s="3">
+      <c r="B510" s="4">
         <v>46894150000</v>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       <c r="A511" s="2">
         <v>1310</v>
       </c>
-      <c r="B511" s="3">
+      <c r="B511" s="4">
         <v>49101750000</v>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       <c r="A512" s="2">
         <v>1312</v>
       </c>
-      <c r="B512" s="3">
+      <c r="B512" s="4">
         <v>38067660000</v>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       <c r="A513" s="2">
         <v>1314</v>
       </c>
-      <c r="B513" s="3">
+      <c r="B513" s="4">
         <v>43295610000</v>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       <c r="A514" s="2">
         <v>1316</v>
       </c>
-      <c r="B514" s="3">
+      <c r="B514" s="4">
         <v>21912210000</v>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       <c r="A515" s="2">
         <v>1318</v>
       </c>
-      <c r="B515" s="3">
+      <c r="B515" s="4">
         <v>34980550000</v>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       <c r="A516" s="2">
         <v>1320</v>
       </c>
-      <c r="B516" s="3">
+      <c r="B516" s="4">
         <v>40722050000</v>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       <c r="A517" s="2">
         <v>1322</v>
       </c>
-      <c r="B517" s="3">
+      <c r="B517" s="4">
         <v>48699580000</v>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       <c r="A518" s="2">
         <v>1324</v>
       </c>
-      <c r="B518" s="3">
+      <c r="B518" s="4">
         <v>9364650000</v>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       <c r="A519" s="2">
         <v>1326</v>
       </c>
-      <c r="B519" s="3">
+      <c r="B519" s="4">
         <v>43908990000</v>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       <c r="A520" s="2">
         <v>1328</v>
       </c>
-      <c r="B520" s="3">
+      <c r="B520" s="4">
         <v>19504800000</v>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       <c r="A521" s="2">
         <v>1330</v>
       </c>
-      <c r="B521" s="3">
+      <c r="B521" s="4">
         <v>25106570000</v>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       <c r="A522" s="2">
         <v>1332</v>
       </c>
-      <c r="B522" s="3">
+      <c r="B522" s="4">
         <v>2640320000</v>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       <c r="A523" s="2">
         <v>1334</v>
       </c>
-      <c r="B523" s="3">
+      <c r="B523" s="4">
         <v>45953170000</v>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       <c r="A524" s="2">
         <v>1336</v>
       </c>
-      <c r="B524" s="3">
+      <c r="B524" s="4">
         <v>27240770000</v>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       <c r="A525" s="2">
         <v>1338</v>
       </c>
-      <c r="B525" s="3">
+      <c r="B525" s="4">
         <v>23633950000</v>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       <c r="A526" s="2">
         <v>1340</v>
       </c>
-      <c r="B526" s="3">
+      <c r="B526" s="4">
         <v>39859250000</v>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       <c r="A527" s="2">
         <v>1342</v>
       </c>
-      <c r="B527" s="3">
+      <c r="B527" s="4">
         <v>39027900000</v>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       <c r="A528" s="2">
         <v>1344</v>
       </c>
-      <c r="B528" s="3">
+      <c r="B528" s="4">
         <v>24274660000</v>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       <c r="A529" s="2">
         <v>1346</v>
       </c>
-      <c r="B529" s="3">
+      <c r="B529" s="4">
         <v>9431860000</v>
       </c>
     </row>
@@ -4741,7 +4741,7 @@
       <c r="A530" s="2">
         <v>1348</v>
       </c>
-      <c r="B530" s="3">
+      <c r="B530" s="4">
         <v>43911180000</v>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       <c r="A531" s="2">
         <v>1350</v>
       </c>
-      <c r="B531" s="3">
+      <c r="B531" s="4">
         <v>33892220000</v>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       <c r="A532" s="2">
         <v>1352</v>
       </c>
-      <c r="B532" s="3">
+      <c r="B532" s="4">
         <v>42780670000</v>
       </c>
     </row>
@@ -4765,7 +4765,7 @@
       <c r="A533" s="2">
         <v>1354</v>
       </c>
-      <c r="B533" s="3">
+      <c r="B533" s="4">
         <v>44977930000</v>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       <c r="A534" s="2">
         <v>1356</v>
       </c>
-      <c r="B534" s="3">
+      <c r="B534" s="4">
         <v>20995330000</v>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       <c r="A535" s="2">
         <v>1358</v>
       </c>
-      <c r="B535" s="3">
+      <c r="B535" s="4">
         <v>4708330000</v>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="A536" s="2">
         <v>1360</v>
       </c>
-      <c r="B536" s="3">
+      <c r="B536" s="4">
         <v>2716320000</v>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       <c r="A537" s="2">
         <v>1362</v>
       </c>
-      <c r="B537" s="3">
+      <c r="B537" s="4">
         <v>35114830000</v>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       <c r="A538" s="2">
         <v>1364</v>
       </c>
-      <c r="B538" s="3">
+      <c r="B538" s="4">
         <v>20490510000</v>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       <c r="A539" s="2">
         <v>1366</v>
       </c>
-      <c r="B539" s="3">
+      <c r="B539" s="4">
         <v>29105090000</v>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       <c r="A540" s="2">
         <v>1368</v>
       </c>
-      <c r="B540" s="3">
+      <c r="B540" s="4">
         <v>22581660000</v>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       <c r="A541" s="2">
         <v>1370</v>
       </c>
-      <c r="B541" s="3">
+      <c r="B541" s="4">
         <v>28139680000</v>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       <c r="A542" s="2">
         <v>1372</v>
       </c>
-      <c r="B542" s="3">
+      <c r="B542" s="4">
         <v>9268490000</v>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       <c r="A543" s="2">
         <v>1374</v>
       </c>
-      <c r="B543" s="3">
+      <c r="B543" s="4">
         <v>31369410000</v>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       <c r="A544" s="2">
         <v>1376</v>
       </c>
-      <c r="B544" s="3">
+      <c r="B544" s="4">
         <v>28643140000</v>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       <c r="A545" s="2">
         <v>1378</v>
       </c>
-      <c r="B545" s="3">
+      <c r="B545" s="4">
         <v>12675890000</v>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       <c r="A546" s="2">
         <v>1380</v>
       </c>
-      <c r="B546" s="3">
+      <c r="B546" s="4">
         <v>48374120000</v>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       <c r="A547" s="2">
         <v>1382</v>
       </c>
-      <c r="B547" s="3">
+      <c r="B547" s="4">
         <v>37816650000</v>
       </c>
     </row>
@@ -4885,7 +4885,7 @@
       <c r="A548" s="2">
         <v>1384</v>
       </c>
-      <c r="B548" s="3">
+      <c r="B548" s="4">
         <v>22803580000</v>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       <c r="A549" s="2">
         <v>1386</v>
       </c>
-      <c r="B549" s="3">
+      <c r="B549" s="4">
         <v>37559480000</v>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       <c r="A550" s="2">
         <v>1388</v>
       </c>
-      <c r="B550" s="3">
+      <c r="B550" s="4">
         <v>32072920000</v>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
       <c r="A551" s="2">
         <v>1390</v>
       </c>
-      <c r="B551" s="3">
+      <c r="B551" s="4">
         <v>42673270000</v>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       <c r="A552" s="2">
         <v>1392</v>
       </c>
-      <c r="B552" s="3">
+      <c r="B552" s="4">
         <v>28600810000</v>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       <c r="A553" s="2">
         <v>1394</v>
       </c>
-      <c r="B553" s="3">
+      <c r="B553" s="4">
         <v>21899050000</v>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
       <c r="A554" s="2">
         <v>1396</v>
       </c>
-      <c r="B554" s="3">
+      <c r="B554" s="4">
         <v>48476560000</v>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       <c r="A555" s="2">
         <v>1398</v>
       </c>
-      <c r="B555" s="3">
+      <c r="B555" s="4">
         <v>17710940000</v>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       <c r="A556" s="2">
         <v>1400</v>
       </c>
-      <c r="B556" s="3">
+      <c r="B556" s="4">
         <v>39780440000</v>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       <c r="A557" s="2">
         <v>1402</v>
       </c>
-      <c r="B557" s="3">
+      <c r="B557" s="4">
         <v>43544700000</v>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       <c r="A558" s="2">
         <v>1404</v>
       </c>
-      <c r="B558" s="3">
+      <c r="B558" s="4">
         <v>12365350000</v>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       <c r="A559" s="2">
         <v>1406</v>
       </c>
-      <c r="B559" s="3">
+      <c r="B559" s="4">
         <v>16472260000</v>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       <c r="A560" s="2">
         <v>1408</v>
       </c>
-      <c r="B560" s="3">
+      <c r="B560" s="4">
         <v>2339820000</v>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       <c r="A561" s="2">
         <v>1410</v>
       </c>
-      <c r="B561" s="3">
+      <c r="B561" s="4">
         <v>14905310000</v>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       <c r="A562" s="2">
         <v>1412</v>
       </c>
-      <c r="B562" s="3">
+      <c r="B562" s="4">
         <v>37011740000</v>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       <c r="A563" s="2">
         <v>1414</v>
       </c>
-      <c r="B563" s="3">
+      <c r="B563" s="4">
         <v>37810620000</v>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       <c r="A564" s="2">
         <v>1416</v>
       </c>
-      <c r="B564" s="3">
+      <c r="B564" s="4">
         <v>43675030000</v>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       <c r="A565" s="2">
         <v>1418</v>
       </c>
-      <c r="B565" s="3">
+      <c r="B565" s="4">
         <v>14180180000</v>
       </c>
     </row>
@@ -5029,7 +5029,7 @@
       <c r="A566" s="2">
         <v>1420</v>
       </c>
-      <c r="B566" s="3">
+      <c r="B566" s="4">
         <v>1247780000</v>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       <c r="A567" s="2">
         <v>1422</v>
       </c>
-      <c r="B567" s="3">
+      <c r="B567" s="4">
         <v>2539180000</v>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       <c r="A568" s="2">
         <v>1424</v>
       </c>
-      <c r="B568" s="3">
+      <c r="B568" s="4">
         <v>38726670000</v>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       <c r="A569" s="2">
         <v>1426</v>
       </c>
-      <c r="B569" s="3">
+      <c r="B569" s="4">
         <v>21394970000</v>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       <c r="A570" s="2">
         <v>1428</v>
       </c>
-      <c r="B570" s="3">
+      <c r="B570" s="4">
         <v>28652000000</v>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       <c r="A571" s="2">
         <v>1430</v>
       </c>
-      <c r="B571" s="3">
+      <c r="B571" s="4">
         <v>18766200000</v>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       <c r="A572" s="2">
         <v>1432</v>
       </c>
-      <c r="B572" s="3">
+      <c r="B572" s="4">
         <v>16473170000</v>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
       <c r="A573" s="2">
         <v>1434</v>
       </c>
-      <c r="B573" s="3">
+      <c r="B573" s="4">
         <v>25094810000</v>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       <c r="A574" s="2">
         <v>1436</v>
       </c>
-      <c r="B574" s="3">
+      <c r="B574" s="4">
         <v>33939000000</v>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
       <c r="A575" s="2">
         <v>1438</v>
       </c>
-      <c r="B575" s="3">
+      <c r="B575" s="4">
         <v>30369140000</v>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       <c r="A576" s="2">
         <v>1440</v>
       </c>
-      <c r="B576" s="3">
+      <c r="B576" s="4">
         <v>24637210000</v>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       <c r="A577" s="2">
         <v>1442</v>
       </c>
-      <c r="B577" s="3">
+      <c r="B577" s="4">
         <v>8122220000</v>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
       <c r="A578" s="2">
         <v>1444</v>
       </c>
-      <c r="B578" s="3">
+      <c r="B578" s="4">
         <v>1051550000</v>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       <c r="A579" s="2">
         <v>1446</v>
       </c>
-      <c r="B579" s="3">
+      <c r="B579" s="4">
         <v>43190420000</v>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       <c r="A580" s="2">
         <v>1448</v>
       </c>
-      <c r="B580" s="3">
+      <c r="B580" s="4">
         <v>48091700000</v>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       <c r="A581" s="2">
         <v>1450</v>
       </c>
-      <c r="B581" s="3">
+      <c r="B581" s="4">
         <v>20351320000</v>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       <c r="A582" s="2">
         <v>1452</v>
       </c>
-      <c r="B582" s="3">
+      <c r="B582" s="4">
         <v>24102360000</v>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       <c r="A583" s="2">
         <v>1454</v>
       </c>
-      <c r="B583" s="3">
+      <c r="B583" s="4">
         <v>47554550000</v>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       <c r="A584" s="2">
         <v>1456</v>
       </c>
-      <c r="B584" s="3">
+      <c r="B584" s="4">
         <v>16908070000</v>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       <c r="A585" s="2">
         <v>1458</v>
       </c>
-      <c r="B585" s="3">
+      <c r="B585" s="4">
         <v>10135570000</v>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       <c r="A586" s="2">
         <v>1460</v>
       </c>
-      <c r="B586" s="3">
+      <c r="B586" s="4">
         <v>23588630000</v>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
       <c r="A587" s="2">
         <v>1462</v>
       </c>
-      <c r="B587" s="3">
+      <c r="B587" s="4">
         <v>24203390000</v>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       <c r="A588" s="2">
         <v>1464</v>
       </c>
-      <c r="B588" s="3">
+      <c r="B588" s="4">
         <v>23506250000</v>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       <c r="A589" s="2">
         <v>1466</v>
       </c>
-      <c r="B589" s="3">
+      <c r="B589" s="4">
         <v>12531460000</v>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       <c r="A590" s="2">
         <v>1468</v>
       </c>
-      <c r="B590" s="3">
+      <c r="B590" s="4">
         <v>20321830000</v>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       <c r="A591" s="2">
         <v>1470</v>
       </c>
-      <c r="B591" s="3">
+      <c r="B591" s="4">
         <v>22467600000</v>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       <c r="A592" s="2">
         <v>1472</v>
       </c>
-      <c r="B592" s="3">
+      <c r="B592" s="4">
         <v>40575290000</v>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
       <c r="A593" s="2">
         <v>1474</v>
       </c>
-      <c r="B593" s="3">
+      <c r="B593" s="4">
         <v>22341790000</v>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       <c r="A594" s="2">
         <v>1476</v>
       </c>
-      <c r="B594" s="3">
+      <c r="B594" s="4">
         <v>1178320000</v>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       <c r="A595" s="2">
         <v>1478</v>
       </c>
-      <c r="B595" s="3">
+      <c r="B595" s="4">
         <v>4705270000</v>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       <c r="A596" s="2">
         <v>1480</v>
       </c>
-      <c r="B596" s="3">
+      <c r="B596" s="4">
         <v>14237530000</v>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       <c r="A597" s="2">
         <v>1482</v>
       </c>
-      <c r="B597" s="3">
+      <c r="B597" s="4">
         <v>3908530000</v>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       <c r="A598" s="2">
         <v>1484</v>
       </c>
-      <c r="B598" s="3">
+      <c r="B598" s="4">
         <v>36428030000</v>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       <c r="A599" s="2">
         <v>1486</v>
       </c>
-      <c r="B599" s="3">
+      <c r="B599" s="4">
         <v>14046690000</v>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       <c r="A600" s="2">
         <v>1488</v>
       </c>
-      <c r="B600" s="3">
+      <c r="B600" s="4">
         <v>29090520000</v>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       <c r="A601" s="2">
         <v>1490</v>
       </c>
-      <c r="B601" s="3">
+      <c r="B601" s="4">
         <v>45256540000</v>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       <c r="A602" s="2">
         <v>1796</v>
       </c>
-      <c r="B602" s="3">
+      <c r="B602" s="4">
         <v>45925040000</v>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       <c r="A603" s="2">
         <v>1798</v>
       </c>
-      <c r="B603" s="3">
+      <c r="B603" s="4">
         <v>28976930000</v>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       <c r="A604" s="2">
         <v>1800</v>
       </c>
-      <c r="B604" s="3">
+      <c r="B604" s="4">
         <v>9367020000</v>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       <c r="A605" s="2">
         <v>1802</v>
       </c>
-      <c r="B605" s="3">
+      <c r="B605" s="4">
         <v>10457400000</v>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       <c r="A606" s="2">
         <v>1804</v>
       </c>
-      <c r="B606" s="3">
+      <c r="B606" s="4">
         <v>21753200000</v>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       <c r="A607" s="2">
         <v>1806</v>
       </c>
-      <c r="B607" s="3">
+      <c r="B607" s="4">
         <v>42094620000</v>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       <c r="A608" s="2">
         <v>1808</v>
       </c>
-      <c r="B608" s="3">
+      <c r="B608" s="4">
         <v>21938430000</v>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       <c r="A609" s="2">
         <v>1810</v>
       </c>
-      <c r="B609" s="3">
+      <c r="B609" s="4">
         <v>41494610000</v>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       <c r="A610" s="2">
         <v>1812</v>
       </c>
-      <c r="B610" s="3">
+      <c r="B610" s="4">
         <v>15131520000</v>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       <c r="A611" s="2">
         <v>1814</v>
       </c>
-      <c r="B611" s="3">
+      <c r="B611" s="4">
         <v>16033270000</v>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       <c r="A612" s="2">
         <v>1816</v>
       </c>
-      <c r="B612" s="3">
+      <c r="B612" s="4">
         <v>6883040000</v>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       <c r="A613" s="2">
         <v>1818</v>
       </c>
-      <c r="B613" s="3">
+      <c r="B613" s="4">
         <v>40235310000</v>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       <c r="A614" s="2">
         <v>1820</v>
       </c>
-      <c r="B614" s="3">
+      <c r="B614" s="4">
         <v>14135530000</v>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       <c r="A615" s="2">
         <v>1822</v>
       </c>
-      <c r="B615" s="3">
+      <c r="B615" s="4">
         <v>12049240000</v>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       <c r="A616" s="2">
         <v>1824</v>
       </c>
-      <c r="B616" s="3">
+      <c r="B616" s="4">
         <v>44959280000</v>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       <c r="A617" s="2">
         <v>1826</v>
       </c>
-      <c r="B617" s="3">
+      <c r="B617" s="4">
         <v>25745700000</v>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       <c r="A618" s="2">
         <v>1828</v>
       </c>
-      <c r="B618" s="3">
+      <c r="B618" s="4">
         <v>37494530000</v>
       </c>
     </row>
@@ -5453,7 +5453,7 @@
       <c r="A619" s="2">
         <v>1830</v>
       </c>
-      <c r="B619" s="3">
+      <c r="B619" s="4">
         <v>30121970000</v>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       <c r="A620" s="2">
         <v>1832</v>
       </c>
-      <c r="B620" s="3">
+      <c r="B620" s="4">
         <v>47109220000</v>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       <c r="A621" s="2">
         <v>1834</v>
       </c>
-      <c r="B621" s="3">
+      <c r="B621" s="4">
         <v>34157790000</v>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
       <c r="A622" s="2">
         <v>1836</v>
       </c>
-      <c r="B622" s="3">
+      <c r="B622" s="4">
         <v>39640900000</v>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       <c r="A623" s="2">
         <v>1838</v>
       </c>
-      <c r="B623" s="3">
+      <c r="B623" s="4">
         <v>3836740000</v>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       <c r="A624" s="2">
         <v>1840</v>
       </c>
-      <c r="B624" s="3">
+      <c r="B624" s="4">
         <v>41549990000</v>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       <c r="A625" s="2">
         <v>1842</v>
       </c>
-      <c r="B625" s="3">
+      <c r="B625" s="4">
         <v>22499830000</v>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       <c r="A626" s="2">
         <v>1844</v>
       </c>
-      <c r="B626" s="3">
+      <c r="B626" s="4">
         <v>46204670000</v>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="A627" s="2">
         <v>1846</v>
       </c>
-      <c r="B627" s="3">
+      <c r="B627" s="4">
         <v>23938810000</v>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       <c r="A628" s="2">
         <v>1848</v>
       </c>
-      <c r="B628" s="3">
+      <c r="B628" s="4">
         <v>24452380000</v>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       <c r="A629" s="2">
         <v>1850</v>
       </c>
-      <c r="B629" s="3">
+      <c r="B629" s="4">
         <v>16303180000</v>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       <c r="A630" s="2">
         <v>1852</v>
       </c>
-      <c r="B630" s="3">
+      <c r="B630" s="4">
         <v>5178360000</v>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       <c r="A631" s="2">
         <v>1854</v>
       </c>
-      <c r="B631" s="3">
+      <c r="B631" s="4">
         <v>14018730000</v>
       </c>
     </row>
@@ -5557,7 +5557,7 @@
       <c r="A632" s="2">
         <v>1856</v>
       </c>
-      <c r="B632" s="3">
+      <c r="B632" s="4">
         <v>33798270000</v>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       <c r="A633" s="2">
         <v>1858</v>
       </c>
-      <c r="B633" s="3">
+      <c r="B633" s="4">
         <v>40044430000</v>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="A634" s="2">
         <v>1860</v>
       </c>
-      <c r="B634" s="3">
+      <c r="B634" s="4">
         <v>8870910000</v>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="A635" s="2">
         <v>1862</v>
       </c>
-      <c r="B635" s="3">
+      <c r="B635" s="4">
         <v>16986230000</v>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       <c r="A636" s="2">
         <v>1864</v>
       </c>
-      <c r="B636" s="3">
+      <c r="B636" s="4">
         <v>49354120000</v>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       <c r="A637" s="2">
         <v>1866</v>
       </c>
-      <c r="B637" s="3">
+      <c r="B637" s="4">
         <v>15247720000</v>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       <c r="A638" s="2">
         <v>1868</v>
       </c>
-      <c r="B638" s="3">
+      <c r="B638" s="4">
         <v>3422730000</v>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       <c r="A639" s="2">
         <v>1870</v>
       </c>
-      <c r="B639" s="3">
+      <c r="B639" s="4">
         <v>14197030000</v>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       <c r="A640" s="2">
         <v>1872</v>
       </c>
-      <c r="B640" s="3">
+      <c r="B640" s="4">
         <v>33276320000</v>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
       <c r="A641" s="2">
         <v>1874</v>
       </c>
-      <c r="B641" s="3">
+      <c r="B641" s="4">
         <v>23877550000</v>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       <c r="A642" s="2">
         <v>1876</v>
       </c>
-      <c r="B642" s="3">
+      <c r="B642" s="4">
         <v>37771750000</v>
       </c>
     </row>
@@ -5645,7 +5645,7 @@
       <c r="A643" s="2">
         <v>1878</v>
       </c>
-      <c r="B643" s="3">
+      <c r="B643" s="4">
         <v>33530140000</v>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       <c r="A644" s="2">
         <v>1880</v>
       </c>
-      <c r="B644" s="3">
+      <c r="B644" s="4">
         <v>18548830000</v>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       <c r="A645" s="2">
         <v>1882</v>
       </c>
-      <c r="B645" s="3">
+      <c r="B645" s="4">
         <v>29939460000</v>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       <c r="A646" s="2">
         <v>1884</v>
       </c>
-      <c r="B646" s="3">
+      <c r="B646" s="4">
         <v>15368950000</v>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       <c r="A647" s="2">
         <v>1886</v>
       </c>
-      <c r="B647" s="3">
+      <c r="B647" s="4">
         <v>40194630000</v>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       <c r="A648" s="2">
         <v>1888</v>
       </c>
-      <c r="B648" s="3">
+      <c r="B648" s="4">
         <v>46633400000</v>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
       <c r="A649" s="2">
         <v>1890</v>
       </c>
-      <c r="B649" s="3">
+      <c r="B649" s="4">
         <v>23181030000</v>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
       <c r="A650" s="2">
         <v>1892</v>
       </c>
-      <c r="B650" s="3">
+      <c r="B650" s="4">
         <v>5598810000</v>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       <c r="A651" s="2">
         <v>1894</v>
       </c>
-      <c r="B651" s="3">
+      <c r="B651" s="4">
         <v>23460720000</v>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       <c r="A652" s="2">
         <v>1896</v>
       </c>
-      <c r="B652" s="3">
+      <c r="B652" s="4">
         <v>26898180000</v>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       <c r="A653" s="2">
         <v>1898</v>
       </c>
-      <c r="B653" s="3">
+      <c r="B653" s="4">
         <v>29870530000</v>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       <c r="A654" s="2">
         <v>1900</v>
       </c>
-      <c r="B654" s="3">
+      <c r="B654" s="4">
         <v>7025360000</v>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       <c r="A655" s="2">
         <v>1902</v>
       </c>
-      <c r="B655" s="3">
+      <c r="B655" s="4">
         <v>4493110000</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
       <c r="A656" s="2">
         <v>1904</v>
       </c>
-      <c r="B656" s="3">
+      <c r="B656" s="4">
         <v>33289870000</v>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       <c r="A657" s="2">
         <v>1906</v>
       </c>
-      <c r="B657" s="3">
+      <c r="B657" s="4">
         <v>39217060000</v>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       <c r="A658" s="2">
         <v>1908</v>
       </c>
-      <c r="B658" s="3">
+      <c r="B658" s="4">
         <v>47103860000</v>
       </c>
     </row>
@@ -5773,7 +5773,7 @@
       <c r="A659" s="2">
         <v>1910</v>
       </c>
-      <c r="B659" s="3">
+      <c r="B659" s="4">
         <v>47870310000</v>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       <c r="A660" s="2">
         <v>1912</v>
       </c>
-      <c r="B660" s="3">
+      <c r="B660" s="4">
         <v>34717810000</v>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       <c r="A661" s="2">
         <v>1914</v>
       </c>
-      <c r="B661" s="3">
+      <c r="B661" s="4">
         <v>49505270000</v>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       <c r="A662" s="2">
         <v>1916</v>
       </c>
-      <c r="B662" s="3">
+      <c r="B662" s="4">
         <v>27253690000</v>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       <c r="A663" s="2">
         <v>1918</v>
       </c>
-      <c r="B663" s="3">
+      <c r="B663" s="4">
         <v>32587550000</v>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
       <c r="A664" s="2">
         <v>1920</v>
       </c>
-      <c r="B664" s="3">
+      <c r="B664" s="4">
         <v>16168770000</v>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       <c r="A665" s="2">
         <v>1922</v>
       </c>
-      <c r="B665" s="3">
+      <c r="B665" s="4">
         <v>13293920000</v>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       <c r="A666" s="2">
         <v>1924</v>
       </c>
-      <c r="B666" s="3">
+      <c r="B666" s="4">
         <v>18192950000</v>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       <c r="A667" s="2">
         <v>1926</v>
       </c>
-      <c r="B667" s="3">
+      <c r="B667" s="4">
         <v>28642790000</v>
       </c>
     </row>
@@ -5845,7 +5845,7 @@
       <c r="A668" s="2">
         <v>1928</v>
       </c>
-      <c r="B668" s="3">
+      <c r="B668" s="4">
         <v>45133780000</v>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       <c r="A669" s="2">
         <v>1930</v>
       </c>
-      <c r="B669" s="3">
+      <c r="B669" s="4">
         <v>10810450000</v>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="A670" s="2">
         <v>1932</v>
       </c>
-      <c r="B670" s="3">
+      <c r="B670" s="4">
         <v>16556450000</v>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="A671" s="2">
         <v>1934</v>
       </c>
-      <c r="B671" s="3">
+      <c r="B671" s="4">
         <v>17285780000</v>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       <c r="A672" s="2">
         <v>1936</v>
       </c>
-      <c r="B672" s="3">
+      <c r="B672" s="4">
         <v>7187770000</v>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       <c r="A673" s="2">
         <v>1938</v>
       </c>
-      <c r="B673" s="3">
+      <c r="B673" s="4">
         <v>2089030000</v>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       <c r="A674" s="2">
         <v>1940</v>
       </c>
-      <c r="B674" s="3">
+      <c r="B674" s="4">
         <v>45549530000</v>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       <c r="A675" s="2">
         <v>1942</v>
       </c>
-      <c r="B675" s="3">
+      <c r="B675" s="4">
         <v>13607560000</v>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       <c r="A676" s="2">
         <v>1944</v>
       </c>
-      <c r="B676" s="3">
+      <c r="B676" s="4">
         <v>34231710000</v>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       <c r="A677" s="2">
         <v>1946</v>
       </c>
-      <c r="B677" s="3">
+      <c r="B677" s="4">
         <v>41703210000</v>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       <c r="A678" s="2">
         <v>1948</v>
       </c>
-      <c r="B678" s="3">
+      <c r="B678" s="4">
         <v>5003190000</v>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       <c r="A679" s="2">
         <v>1950</v>
       </c>
-      <c r="B679" s="3">
+      <c r="B679" s="4">
         <v>25205450000</v>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       <c r="A680" s="2">
         <v>1952</v>
       </c>
-      <c r="B680" s="3">
+      <c r="B680" s="4">
         <v>12657190000</v>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       <c r="A681" s="2">
         <v>1954</v>
       </c>
-      <c r="B681" s="3">
+      <c r="B681" s="4">
         <v>5418020000</v>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
       <c r="A682" s="2">
         <v>1956</v>
       </c>
-      <c r="B682" s="3">
+      <c r="B682" s="4">
         <v>33160590000</v>
       </c>
     </row>
@@ -5965,7 +5965,7 @@
       <c r="A683" s="2">
         <v>1958</v>
       </c>
-      <c r="B683" s="3">
+      <c r="B683" s="4">
         <v>16573310000</v>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       <c r="A684" s="2">
         <v>1960</v>
       </c>
-      <c r="B684" s="3">
+      <c r="B684" s="4">
         <v>32788020000</v>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       <c r="A685" s="2">
         <v>1962</v>
       </c>
-      <c r="B685" s="3">
+      <c r="B685" s="4">
         <v>3321850000</v>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       <c r="A686" s="2">
         <v>1964</v>
       </c>
-      <c r="B686" s="3">
+      <c r="B686" s="4">
         <v>19008330000</v>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       <c r="A687" s="2">
         <v>1966</v>
       </c>
-      <c r="B687" s="3">
+      <c r="B687" s="4">
         <v>28118110000</v>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       <c r="A688" s="2">
         <v>1968</v>
       </c>
-      <c r="B688" s="3">
+      <c r="B688" s="4">
         <v>49198820000</v>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       <c r="A689" s="2">
         <v>1970</v>
       </c>
-      <c r="B689" s="3">
+      <c r="B689" s="4">
         <v>4484890000</v>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       <c r="A690" s="2">
         <v>1972</v>
       </c>
-      <c r="B690" s="3">
+      <c r="B690" s="4">
         <v>14509840000</v>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       <c r="A691" s="2">
         <v>1974</v>
       </c>
-      <c r="B691" s="3">
+      <c r="B691" s="4">
         <v>670490000</v>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       <c r="A692" s="2">
         <v>1976</v>
       </c>
-      <c r="B692" s="3">
+      <c r="B692" s="4">
         <v>7437190000</v>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       <c r="A693" s="2">
         <v>1978</v>
       </c>
-      <c r="B693" s="3">
+      <c r="B693" s="4">
         <v>20355620000</v>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
       <c r="A694" s="2">
         <v>1980</v>
       </c>
-      <c r="B694" s="3">
+      <c r="B694" s="4">
         <v>31533850000</v>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
       <c r="A695" s="2">
         <v>1982</v>
       </c>
-      <c r="B695" s="3">
+      <c r="B695" s="4">
         <v>30066240000</v>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       <c r="A696" s="2">
         <v>1984</v>
       </c>
-      <c r="B696" s="3">
+      <c r="B696" s="4">
         <v>7844090000</v>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       <c r="A697" s="2">
         <v>1986</v>
       </c>
-      <c r="B697" s="3">
+      <c r="B697" s="4">
         <v>36984170000</v>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       <c r="A698" s="2">
         <v>1988</v>
       </c>
-      <c r="B698" s="3">
+      <c r="B698" s="4">
         <v>37359600000</v>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       <c r="A699" s="2">
         <v>1990</v>
       </c>
-      <c r="B699" s="3">
+      <c r="B699" s="4">
         <v>37196370000</v>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       <c r="A700" s="2">
         <v>1992</v>
       </c>
-      <c r="B700" s="3">
+      <c r="B700" s="4">
         <v>2655040000</v>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="A701" s="2">
         <v>1994</v>
       </c>
-      <c r="B701" s="3">
+      <c r="B701" s="4">
         <v>9799740000</v>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       <c r="A702" s="2">
         <v>2051</v>
       </c>
-      <c r="B702" s="3">
+      <c r="B702" s="4">
         <v>22862520000</v>
       </c>
     </row>
